--- a/Materials_test.xlsx
+++ b/Materials_test.xlsx
@@ -16,7 +16,7 @@
     <t>MaTerial</t>
   </si>
   <si>
-    <t>tHickNess</t>
+    <t>tHickNess [nm]</t>
   </si>
   <si>
     <t>UNIT</t>
